--- a/data/trans_dic/P20-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P20-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P20-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P20-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -666,17 +666,17 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,11%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -686,17 +686,17 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,64%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,64%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -706,12 +706,12 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,46%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,4%</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>2,02; 6,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>3,02; 8,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>2,23; 6,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,78</t>
+          <t>2,3; 8,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>8,11; 15,71</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>4,71; 9,27</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>2,85; 6,51</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>6,3; 11,1</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>4,0; 7,26</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,38%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,76%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,38%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,37%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,9%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,33%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,91%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,56%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,02%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>3,37; 7,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>5,93; 11,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>2,65; 6,4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>5,52; 10,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>7,05; 12,18</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>8,72; 14,16</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>4,78; 9,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>2,9; 6,38</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>5,77; 9,17</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>8,17; 12,13</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>4,14; 7,11</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>4,54; 7,65</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,54%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,74%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,49%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,92%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,45%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,05%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,12%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>0,91; 4,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>4,9; 10,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>1,44; 5,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>6,3; 12,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>2,92; 7,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>7,59; 14,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>6,95; 13,29</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>6,66; 12,47</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>2,34; 5,47</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>7,16; 11,72</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>4,79; 8,59</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>7,35; 11,32</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,85%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,58%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,27%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,14%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,23%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,64%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,01%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,92%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,1%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>0,96; 3,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>5,14; 9,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>5,25; 10,74</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>4,77; 11,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>3,31; 7,91</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>8,55; 13,63</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>5,71; 11,53</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>5,9; 13,05</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>2,34; 5,14</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>7,57; 10,72</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>5,9; 10,2</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>5,97; 11,12</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,22%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,1%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,07%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,74%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,76%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,01%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,63%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,23%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,93</t>
+          <t>3,81; 10,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>3,71; 10,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>2,21; 7,12</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>1,15; 4,68</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,96</t>
+          <t>5,37; 13,73</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>6,08; 14,43</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>2,5; 9,3</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>2,47; 5,73</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>5,3; 10,45</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>5,84; 11,41</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>2,88; 6,96</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>2,16; 4,62</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,62%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,29%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,06%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,99%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,55%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,41%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,39%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,61%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,88%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,73%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>2,1; 6,62</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>3,09; 9,31</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>4,57; 11,11</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>6,72; 12,14</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>7,65; 15,22</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>6,44; 13,77</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>7,05; 14,84</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>5,91; 11,34</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>5,63; 9,89</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>5,58; 10,16</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>6,83; 11,51</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>6,77; 10,82</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,78%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,64%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,86%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,41%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,46%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,12%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,8%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,12%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,59%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,39%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>4,22; 7,88</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>3,07; 6,65</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>2,58; 5,93</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>4,07; 7,77</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>6,45; 10,8</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>6,57; 10,85</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>5,18; 9,5</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>4,04; 8,86</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>5,75; 8,68</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>5,2; 8,32</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>4,39; 7,06</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>4,79; 7,76</t>
         </is>
       </c>
     </row>
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,76%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,12%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,44%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,0%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,57%</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>2,39; 5,04</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>3,4; 6,51</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>3,22; 6,36</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>2,02; 4,58</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>4,84; 8,47</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>5,65; 9,4</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>4,39; 7,78</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>2,81; 5,48</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>3,91; 6,17</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>4,97; 7,49</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>4,23; 6,56</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>2,71; 4,57</t>
         </is>
       </c>
     </row>
@@ -1776,62 +1776,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,1%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,8%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,51%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,71%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,21%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,78%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,84%</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,3%</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,02%</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>3,48; 4,93</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>5,34; 7,05</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>4,15; 5,58</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>5,04; 6,66</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>6,44; 8,32</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>8,56; 10,48</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>6,86; 8,71</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>5,46; 7,06</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>5,19; 6,37</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>7,18; 8,56</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>5,7; 6,98</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>5,42; 6,59</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P20-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P20-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,7%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,11%</t>
+          <t>3,87%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,86%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>6,64%</t>
+          <t>6,52%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,75%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>5,15%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,75; 12,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,23; 6,97</t>
+          <t>2,14; 6,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,32; 17,65</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,71; 9,27</t>
+          <t>4,62; 9,13</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,55; 13,79</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,0; 7,26</t>
+          <t>3,82; 7,02</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,76%</t>
+          <t>7,47%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
+          <t>4,35%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>6,02%</t>
+          <t>5,92%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,52; 10,9</t>
+          <t>5,31; 10,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,9; 6,38</t>
+          <t>2,84; 6,24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,54; 7,65</t>
+          <t>4,46; 7,58</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8,74%</t>
+          <t>8,59%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>9,45%</t>
+          <t>9,41%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>9,12%</t>
+          <t>9,02%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,3; 12,56</t>
+          <t>6,16; 12,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,66; 12,47</t>
+          <t>6,6; 12,39</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,35; 11,32</t>
+          <t>7,28; 11,23</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,85%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,38%</t>
+          <t>7,43%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>11,14%</t>
+          <t>9,87%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>8,64%</t>
+          <t>7,07%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>9,01%</t>
+          <t>7,67%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>8,1%</t>
+          <t>7,22%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,14; 9,4</t>
+          <t>3,37; 7,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,77; 11,79</t>
+          <t>4,76; 12,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,55; 13,63</t>
+          <t>7,18; 13,31</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,9; 13,05</t>
+          <t>4,14; 11,08</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,57; 10,72</t>
+          <t>5,98; 9,85</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,97; 11,12</t>
+          <t>4,74; 9,7</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>3,92%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>3,24%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,15; 4,68</t>
+          <t>1,15; 4,66</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,47; 5,73</t>
+          <t>2,5; 5,77</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,16; 4,62</t>
+          <t>2,17; 4,65</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>9,06%</t>
+          <t>8,99%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>8,73%</t>
+          <t>8,7%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,72; 12,14</t>
+          <t>6,66; 12,11</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>5,91; 11,34</t>
+          <t>5,93; 11,35</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>6,77; 10,82</t>
+          <t>6,76; 10,83</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>5,65%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>6,8%</t>
+          <t>5,99%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>6,39%</t>
+          <t>5,84%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,07; 7,77</t>
+          <t>3,88; 7,48</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,04; 8,86</t>
+          <t>2,47; 8,56</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>4,79; 7,76</t>
+          <t>3,77; 7,31</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>3,13%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,02; 4,58</t>
+          <t>0,96; 3,88</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>2,81; 5,48</t>
+          <t>2,79; 5,4</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>2,71; 4,57</t>
+          <t>1,82; 4,12</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>5,8%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>6,21%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>6,02%</t>
+          <t>5,69%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>5,04; 6,66</t>
+          <t>4,33; 6,33</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>5,46; 7,06</t>
+          <t>4,89; 6,75</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>5,42; 6,59</t>
+          <t>4,91; 6,35</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P20-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P20-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,02; 6,53</t>
+          <t>1,97; 6,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,75; 12,63</t>
+          <t>5,48; 12,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,02; 8,04</t>
+          <t>3,04; 8,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,14; 6,74</t>
+          <t>2,09; 6,37</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,3; 8,3</t>
+          <t>2,6; 8,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,32; 17,65</t>
+          <t>9,14; 17,43</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,11; 15,71</t>
+          <t>8,22; 16,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,62; 9,13</t>
+          <t>4,5; 8,93</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,85; 6,51</t>
+          <t>2,81; 6,37</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>8,55; 13,79</t>
+          <t>8,19; 13,66</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,3; 11,1</t>
+          <t>6,47; 11,17</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,82; 7,02</t>
+          <t>3,77; 7,02</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,37; 7,73</t>
+          <t>3,25; 7,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,93; 11,44</t>
+          <t>6,14; 11,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,65; 6,4</t>
+          <t>2,75; 6,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,31; 10,53</t>
+          <t>5,42; 10,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,05; 12,18</t>
+          <t>7,17; 12,41</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,72; 14,16</t>
+          <t>8,71; 14,38</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,78; 9,16</t>
+          <t>4,78; 9,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,84; 6,24</t>
+          <t>2,83; 6,2</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,77; 9,17</t>
+          <t>5,73; 9,01</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8,17; 12,13</t>
+          <t>8,04; 12,04</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,14; 7,11</t>
+          <t>3,99; 7,0</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,46; 7,58</t>
+          <t>4,54; 7,43</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,91; 4,72</t>
+          <t>0,82; 4,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,9; 10,86</t>
+          <t>5,07; 11,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,44; 5,22</t>
+          <t>1,44; 5,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,16; 12,32</t>
+          <t>6,05; 11,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,92; 7,55</t>
+          <t>3,06; 7,68</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,59; 14,22</t>
+          <t>7,25; 14,17</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,95; 13,29</t>
+          <t>6,98; 13,86</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,6; 12,39</t>
+          <t>7,1; 12,5</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,34; 5,47</t>
+          <t>2,23; 5,12</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,16; 11,72</t>
+          <t>7,09; 11,58</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,79; 8,59</t>
+          <t>4,91; 8,78</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,28; 11,23</t>
+          <t>7,24; 11,37</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,96; 3,88</t>
+          <t>0,97; 3,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,37; 7,93</t>
+          <t>3,33; 7,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,25; 10,74</t>
+          <t>4,9; 10,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,76; 12,09</t>
+          <t>4,63; 12,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,31; 7,91</t>
+          <t>3,4; 8,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,18; 13,31</t>
+          <t>6,94; 13,29</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,71; 11,53</t>
+          <t>5,41; 11,44</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,14; 11,08</t>
+          <t>3,96; 11,04</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,34; 5,14</t>
+          <t>2,59; 5,36</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,98; 9,85</t>
+          <t>5,81; 9,8</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,9; 10,2</t>
+          <t>6,05; 10,26</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,74; 9,7</t>
+          <t>4,92; 10,08</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,81; 10,71</t>
+          <t>3,47; 10,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,71; 10,29</t>
+          <t>3,69; 10,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,21; 7,12</t>
+          <t>2,12; 7,73</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,15; 4,66</t>
+          <t>1,07; 4,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,37; 13,73</t>
+          <t>5,66; 14,42</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,08; 14,43</t>
+          <t>6,19; 14,37</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,5; 9,3</t>
+          <t>2,5; 9,05</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,5; 5,77</t>
+          <t>2,52; 6,04</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,3; 10,45</t>
+          <t>5,57; 10,86</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5,84; 11,41</t>
+          <t>5,7; 10,87</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,88; 6,96</t>
+          <t>3,02; 7,35</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,17; 4,65</t>
+          <t>2,24; 4,62</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,1; 6,62</t>
+          <t>2,08; 6,76</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,09; 9,31</t>
+          <t>3,02; 8,95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,57; 11,11</t>
+          <t>4,59; 11,25</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,66; 12,11</t>
+          <t>6,61; 12,38</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,65; 15,22</t>
+          <t>7,65; 15,14</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>6,44; 13,77</t>
+          <t>6,66; 13,69</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,05; 14,84</t>
+          <t>6,93; 15,26</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>5,93; 11,35</t>
+          <t>6,16; 11,59</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>5,63; 9,89</t>
+          <t>5,48; 9,95</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>5,58; 10,16</t>
+          <t>5,46; 10,08</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>6,83; 11,51</t>
+          <t>6,41; 11,39</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>6,76; 10,83</t>
+          <t>6,78; 10,92</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,22; 7,88</t>
+          <t>4,11; 8,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,07; 6,65</t>
+          <t>3,14; 6,57</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,58; 5,93</t>
+          <t>2,45; 5,92</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,88; 7,48</t>
+          <t>4,07; 7,53</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,45; 10,8</t>
+          <t>6,49; 10,8</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,57; 10,85</t>
+          <t>6,38; 11,05</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,18; 9,5</t>
+          <t>5,29; 9,59</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,47; 8,56</t>
+          <t>2,76; 8,45</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,75; 8,68</t>
+          <t>5,71; 8,49</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>5,2; 8,32</t>
+          <t>5,15; 8,04</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>4,39; 7,06</t>
+          <t>4,36; 6,97</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>3,77; 7,31</t>
+          <t>3,6; 7,36</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,39; 5,04</t>
+          <t>2,31; 4,95</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,4; 6,51</t>
+          <t>3,42; 6,51</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,22; 6,36</t>
+          <t>3,26; 6,36</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,96; 3,88</t>
+          <t>0,98; 3,86</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>4,84; 8,47</t>
+          <t>4,7; 8,35</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>5,65; 9,4</t>
+          <t>5,72; 9,41</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>4,39; 7,78</t>
+          <t>4,46; 7,83</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>2,79; 5,4</t>
+          <t>2,91; 5,56</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>3,91; 6,17</t>
+          <t>3,96; 6,13</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>4,97; 7,49</t>
+          <t>4,98; 7,47</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>4,23; 6,56</t>
+          <t>4,15; 6,47</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>1,82; 4,12</t>
+          <t>1,81; 4,09</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>3,48; 4,93</t>
+          <t>3,49; 4,92</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>5,34; 7,05</t>
+          <t>5,29; 7,02</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>4,15; 5,58</t>
+          <t>4,08; 5,6</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,33; 6,33</t>
+          <t>4,3; 6,34</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>6,44; 8,32</t>
+          <t>6,57; 8,44</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>8,56; 10,48</t>
+          <t>8,54; 10,53</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>6,86; 8,71</t>
+          <t>6,82; 8,65</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>4,89; 6,75</t>
+          <t>4,86; 6,82</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>5,19; 6,37</t>
+          <t>5,26; 6,34</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>7,18; 8,56</t>
+          <t>7,18; 8,48</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>5,7; 6,98</t>
+          <t>5,72; 6,89</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>4,91; 6,35</t>
+          <t>4,9; 6,32</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha estado ingresada en un hospital en los últimos 12 meses</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>10078</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>25654</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>15641</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>12044</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>12585</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>36932</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>33613</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>18894</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>22663</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>62586</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>49254</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>30938</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>5371; 17348</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>16141; 35959</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>8921; 25432</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>6499; 19841</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>6778; 21895</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>26264; 50079</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>23724; 46294</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>13045; 25851</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>14986; 34020</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>47668; 79499</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>37690; 65070</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>22687; 42193</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>25816</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>42216</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>20991</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>38744</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>47275</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>59559</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>36067</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>22411</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>73091</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>101775</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>57059</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>61155</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>16028; 36929</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>30917; 58779</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>13807; 31583</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>28080; 53352</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>36109; 62523</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>45621; 75321</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>25012; 50136</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>14567; 31953</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>57144; 89853</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>82554; 123641</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>40917; 71785</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>46925; 76807</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>7375</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>24444</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>9067</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>27141</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>16324</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>35774</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>33377</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>32844</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>23699</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>60218</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>42444</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>59985</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2618; 15765</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>16435; 35948</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4572; 16027</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>19122; 37797</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>10256; 25748</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>24725; 48306</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>23471; 46610</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>24775; 43653</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>14573; 33485</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>47176; 76997</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>32139; 57495</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>48158; 75651</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>7395</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>20152</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>28057</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>23237</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>19581</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>38381</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>31890</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>33638</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>26976</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>58533</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>59947</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>56875</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>3485; 13698</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>12448; 29258</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>18127; 39228</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>14474; 38358</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>12612; 30113</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>26980; 51709</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>20938; 44310</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>18844; 52517</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>18871; 39100</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>44302; 74754</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>45817; 77686</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>38791; 79490</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>13053</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>13216</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>8667</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>4308</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>18842</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>21390</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>11241</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>8257</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>31895</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>34606</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>19908</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>12565</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>7045; 20734</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>7850; 22541</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>4471; 16320</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1916; 7893</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>11744; 29937</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>13584; 31553</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>5467; 19781</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>5255; 12609</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>22884; 44645</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>24621; 46965</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>12978; 31597</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>8683; 17886</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>10466</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>15385</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>19186</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>24252</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>30572</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>26756</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>28422</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>21577</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>41038</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>42141</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>47607</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>45830</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>5623; 18299</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>8273; 24526</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>12072; 29603</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>17816; 33389</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>21270; 42114</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>18638; 38327</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>18915; 41687</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>15841; 29789</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>30059; 54609</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>30253; 55845</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>34374; 61052</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>35719; 57539</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>35533</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>30749</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>26160</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>35242</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>53668</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>58672</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>49196</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>50835</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>89201</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>89421</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>75356</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>86077</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>25298; 49482</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>20788; 43520</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>16100; 38897</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>25427; 47037</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>41433; 68901</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>44247; 76653</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>36585; 66330</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>23469; 71728</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>71539; 106428</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>69801; 109045</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>58833; 93931</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>53088; 108383</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>25711</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>37098</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>35711</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>23090</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>50494</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>60769</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>49533</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>28387</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>76205</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>97867</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>85244</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>51477</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>17195; 36794</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>26620; 50723</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>25353; 49509</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>9137; 35857</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>36801; 65431</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>47155; 77511</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>36857; 64692</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>20811; 39772</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>60554; 93643</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>79903; 119808</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>66656; 103906</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>29810; 67320</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>344</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>378</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>507</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>406</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>572</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>135426</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>208914</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>163481</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>188058</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>249341</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>338233</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>273339</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>216843</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>384767</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>547147</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>436820</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>404902</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>114463; 161027</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>181142; 240563</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>138465; 190218</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>148604; 219461</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>221883; 285315</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>304031; 374818</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>241903; 306475</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>177874; 249496</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>350217; 422044</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>501689; 591963</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>396890; 477952</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>348675; 450091</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>